--- a/TestData/api_cases.xlsx
+++ b/TestData/api_cases.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="17265" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
-    <sheet name="登陆" sheetId="3" r:id="rId2"/>
+    <sheet name="登录" sheetId="3" r:id="rId2"/>
     <sheet name="充值" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +156,39 @@
   </si>
   <si>
     <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>/member/login</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789"}</t>
+  </si>
+  <si>
+    <t>{"code": 0,"msg": "OK"}</t>
+  </si>
+  <si>
+    <t>{"pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"1550000000","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"155000000001","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"1550000000q","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"15500056781","pwd":"1234567"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"15500000001","pwd":"12345678901234567"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"13300000001"}</t>
   </si>
   <si>
     <t>case_id</t>
@@ -286,10 +319,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -323,6 +356,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -339,17 +387,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,16 +408,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,61 +433,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,12 +454,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -476,187 +509,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,11 +744,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,65 +826,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -801,10 +834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -813,133 +846,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,18 +1328,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="3"/>
-    <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="8.55555555555556" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="66.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="45.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="59.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="8.89166666666667" style="3"/>
+    <col min="2" max="2" width="19.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.55833333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="66.225" customWidth="1"/>
+    <col min="6" max="6" width="45.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="59.225" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:6">
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1395,7 +1428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:6">
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1415,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:6">
+    <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1435,7 +1468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:6">
+    <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1455,7 +1488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:6">
+    <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1475,7 +1508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:6">
+    <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1495,7 +1528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:6">
+    <row r="10" ht="16.5" spans="1:6">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1515,7 +1548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:6">
+    <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1535,7 +1568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:6">
+    <row r="12" ht="16.5" spans="1:6">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1555,7 +1588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:6">
+    <row r="13" ht="16.5" spans="1:6">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1575,7 +1608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1607,14 +1640,205 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:6">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:6">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1625,28 +1849,28 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.5555555555556" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.5583333333333" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.6666666666667" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.33333333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
     <col min="6" max="6" width="48.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.5555555555556" style="4" customWidth="1"/>
-    <col min="8" max="16383" width="8.88888888888889" style="4"/>
+    <col min="7" max="7" width="55.5583333333333" style="4" customWidth="1"/>
+    <col min="8" max="16383" width="8.89166666666667" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1667,338 +1891,338 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:8">
+    <row r="2" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" customHeight="1" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" customHeight="1" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" customHeight="1" spans="1:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" customHeight="1" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" customHeight="1" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" customHeight="1" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" customHeight="1" spans="1:7">
+    </row>
+    <row r="15" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2016,7 +2240,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2032,7 +2256,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2048,7 +2272,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2064,7 +2288,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2080,12 +2304,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="28.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="28.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>

--- a/TestData/api_cases.xlsx
+++ b/TestData/api_cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -161,16 +161,22 @@
     <t>登录成功</t>
   </si>
   <si>
+    <t>member/login</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789"}</t>
+  </si>
+  <si>
+    <t>{"code": 0,"msg": "OK"}</t>
+  </si>
+  <si>
+    <t>{"pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"手机号码为空"}</t>
+  </si>
+  <si>
     <t>/member/login</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#phone#","pwd":"123456789"}</t>
-  </si>
-  <si>
-    <t>{"code": 0,"msg": "OK"}</t>
-  </si>
-  <si>
-    <t>{"pwd":"12345678"}</t>
   </si>
   <si>
     <t>{"mobile_phone":"1550000000","pwd":"12345678"}</t>
@@ -319,9 +325,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -356,21 +362,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -385,16 +376,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,14 +423,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -434,13 +431,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,20 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -492,6 +468,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -499,6 +498,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -509,13 +515,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,169 +605,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,6 +751,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -770,48 +818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -834,145 +840,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1643,7 +1649,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1715,7 +1721,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
@@ -1729,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -1749,10 +1755,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
@@ -1769,10 +1775,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -1789,10 +1795,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>31</v>
@@ -1809,10 +1815,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>31</v>
@@ -1829,10 +1835,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>36</v>
@@ -1867,10 +1873,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1896,25 +1902,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -1922,25 +1928,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -1948,25 +1954,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -1974,25 +1980,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2000,22 +2006,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2023,22 +2029,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2046,22 +2052,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2069,22 +2075,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2092,22 +2098,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2115,22 +2121,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2138,22 +2144,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2161,22 +2167,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2184,22 +2190,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2207,22 +2213,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2320,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>

--- a/TestData/api_cases.xlsx
+++ b/TestData/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17265" windowHeight="9045" activeTab="1"/>
+    <workbookView windowWidth="21165" windowHeight="9045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,10 @@
     <t>{"member_id": #member_id#,"amount":600}</t>
   </si>
   <si>
-    <t>SELECT leave_amount FROM futureloan.member WHERE id={};</t>
+    <t>{"code":0,"msg":"OK","data":{"id":#member_id#,"leave_amount":#money#}}</t>
+  </si>
+  <si>
+    <t>select CAST(member.leave_amount AS CHAR) as leave_amount from member where id=#member_id#;</t>
   </si>
   <si>
     <t>充值成功-1位小数</t>
@@ -282,9 +285,6 @@
   </si>
   <si>
     <t>{"member_id": #member_id#,"amount": -600}</t>
-  </si>
-  <si>
-    <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
   </si>
   <si>
     <t>充值金额为空</t>
@@ -326,8 +326,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -362,6 +362,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -376,6 +391,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -383,23 +406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,9 +432,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,13 +477,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -483,17 +485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,6 +498,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -515,19 +515,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,151 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,6 +735,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -746,6 +761,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,15 +803,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -809,26 +826,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,137 +852,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,9 +997,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,6 +1019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1369,10 +1382,10 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1384,7 +1397,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1392,10 +1405,10 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1407,7 +1420,7 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
@@ -1415,10 +1428,10 @@
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1430,15 +1443,15 @@
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1450,15 +1463,15 @@
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1470,15 +1483,15 @@
       <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1490,15 +1503,15 @@
       <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1510,15 +1523,15 @@
       <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1530,15 +1543,15 @@
       <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1550,15 +1563,15 @@
       <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1570,15 +1583,15 @@
       <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1590,15 +1603,15 @@
       <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1610,15 +1623,15 @@
       <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1630,7 +1643,7 @@
       <c r="E14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
@@ -1648,7 +1661,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1685,10 +1698,10 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="9">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1700,15 +1713,15 @@
       <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1720,15 +1733,15 @@
       <c r="E3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1740,15 +1753,15 @@
       <c r="E4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1760,15 +1773,15 @@
       <c r="E5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1780,15 +1793,15 @@
       <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1800,15 +1813,15 @@
       <c r="E7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1820,15 +1833,15 @@
       <c r="E8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1840,7 +1853,7 @@
       <c r="E9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1853,10 +1866,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1866,9 +1879,10 @@
     <col min="3" max="3" width="21.6666666666667" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.33333333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="48.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.5583333333333" style="4" customWidth="1"/>
-    <col min="8" max="16383" width="8.89166666666667" style="4"/>
+    <col min="6" max="6" width="33.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="4" customWidth="1"/>
+    <col min="9" max="16383" width="8.89166666666667" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:8">
@@ -1893,343 +1907,362 @@
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="F12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="F13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="F14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="F15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TestData/api_cases.xlsx
+++ b/TestData/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21165" windowHeight="9045" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9407" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -362,16 +362,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,8 +384,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,40 +452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,9 +475,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,37 +499,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,19 +515,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,163 +587,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,17 +735,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,46 +759,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,6 +797,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,133 +852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,18 +1347,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.89166666666667" style="3"/>
-    <col min="2" max="2" width="19.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="8.55833333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="66.225" customWidth="1"/>
-    <col min="6" max="6" width="45.1083333333333" customWidth="1"/>
-    <col min="7" max="7" width="59.225" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="3"/>
+    <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="8.55555555555556" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="66.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="45.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="59.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="15.6" spans="1:6">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" ht="15.6" spans="1:6">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" ht="15.6" spans="1:6">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" ht="15.6" spans="1:6">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" ht="15.6" spans="1:6">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
+    <row r="9" ht="15.6" spans="1:6">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
+    <row r="10" ht="15.6" spans="1:6">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
+    <row r="11" ht="15.6" spans="1:6">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
+    <row r="12" ht="15.6" spans="1:6">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
+    <row r="13" ht="15.6" spans="1:6">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1665,16 +1665,16 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.1296296296296" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="32.125" customWidth="1"/>
+    <col min="6" max="6" width="32.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
+    <row r="2" ht="15.6" spans="1:6">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
+    <row r="3" ht="15.6" spans="1:6">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="15.6" spans="1:6">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" ht="15.6" spans="1:6">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" ht="15.6" spans="1:6">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" ht="15.6" spans="1:6">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" ht="15.6" spans="1:6">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
+    <row r="9" ht="15.6" spans="1:6">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1866,26 +1866,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.5583333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.5555555555556" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.6666666666667" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.33333333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
     <col min="6" max="6" width="33.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="4" customWidth="1"/>
-    <col min="9" max="16383" width="8.89166666666667" style="4"/>
+    <col min="7" max="7" width="36.8796296296296" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.1296296296296" style="4" customWidth="1"/>
+    <col min="9" max="16383" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:8">
+    <row r="1" s="4" customFormat="1" ht="28.8" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="7" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="8" s="5" customFormat="1" customHeight="1" spans="1:8">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="11" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="12" s="5" customFormat="1" customHeight="1" spans="1:8">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="13" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="14" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+    <row r="15" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2254,15 +2254,6 @@
         <v>80</v>
       </c>
       <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2279,7 +2270,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2295,7 +2286,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2311,7 +2302,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2327,7 +2318,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2343,12 +2334,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="28.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="28.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/TestData/api_cases.xlsx
+++ b/TestData/api_cases.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9407" activeTab="2"/>
+    <workbookView windowWidth="21165" windowHeight="9045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="登录" sheetId="3" r:id="rId2"/>
     <sheet name="充值" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="提现" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="业务流" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -315,6 +315,24 @@
   </si>
   <si>
     <t>{"member_id": #member_id#,"amount": "5万"}</t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>提现成功-整数</t>
+  </si>
+  <si>
+    <t>member/withdraw</t>
+  </si>
+  <si>
+    <t>提现成功-1位小数</t>
+  </si>
+  <si>
+    <t>提现成功-2位小数</t>
+  </si>
+  <si>
+    <t>提现成功-50万</t>
   </si>
   <si>
     <t>url(必须以/开头)</t>
@@ -325,8 +343,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -346,12 +364,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -360,14 +372,12 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -378,37 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,16 +402,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,19 +438,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,10 +484,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,20 +509,20 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -515,13 +533,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,25 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,139 +683,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,6 +753,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -759,50 +792,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,6 +818,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -832,6 +835,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,10 +858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,137 +870,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,23 +1013,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,8 +1038,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1344,309 +1381,319 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="3"/>
-    <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="8.55555555555556" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="66.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="45.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="59.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="8.89166666666667" style="3"/>
+    <col min="2" max="2" width="19.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.55833333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16.5" spans="1:7">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:7">
-      <c r="A2" s="11">
+    <row r="2" ht="27" spans="1:7">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="11">
+    <row r="3" ht="27" spans="1:7">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:6">
-      <c r="A4" s="11">
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:6">
-      <c r="A5" s="11">
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" ht="27" spans="1:7">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:6">
-      <c r="A6" s="11">
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" ht="27" spans="1:7">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:6">
-      <c r="A7" s="11">
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" ht="27" spans="1:7">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:6">
-      <c r="A8" s="11">
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" ht="27" spans="1:7">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:6">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" ht="27" spans="1:7">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:6">
-      <c r="A10" s="11">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" ht="27" spans="1:7">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:6">
-      <c r="A11" s="11">
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:6">
-      <c r="A12" s="11">
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" ht="27" spans="1:7">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:6">
-      <c r="A13" s="11">
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" ht="27" spans="1:7">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:7">
-      <c r="A14" s="11">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" ht="27" spans="1:7">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1662,19 +1709,20 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="32.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="16.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="43.875" customWidth="1"/>
+    <col min="6" max="6" width="37.875" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:6">
+    <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1717,7 +1765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:6">
+    <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1730,14 +1778,14 @@
       <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:6">
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1750,14 +1798,14 @@
       <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:6">
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1770,14 +1818,14 @@
       <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:6">
+    <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1790,14 +1838,14 @@
       <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:6">
+    <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1810,14 +1858,14 @@
       <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:6">
+    <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1830,14 +1878,14 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:6">
+    <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1850,7 +1898,7 @@
       <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -1868,392 +1916,392 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.5555555555556" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.6666666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="33.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.8796296296296" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.1296296296296" style="4" customWidth="1"/>
-    <col min="9" max="16383" width="8.88888888888889" style="4"/>
+    <col min="1" max="1" width="7.66666666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.5583333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.6666666666667" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.33333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17" style="9" customWidth="1"/>
+    <col min="6" max="6" width="33.75" style="9" customWidth="1"/>
+    <col min="7" max="7" width="36.8833333333333" style="9" customWidth="1"/>
+    <col min="8" max="8" width="25.375" style="9" customWidth="1"/>
+    <col min="9" max="16383" width="8.89166666666667" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="28.8" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A2" s="7">
+    <row r="2" ht="67.5" spans="1:8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A3" s="7">
+    <row r="3" ht="67.5" spans="1:8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="7">
+    <row r="4" ht="67.5" spans="1:8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A5" s="7">
+    <row r="5" ht="67.5" spans="1:8">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A6" s="7">
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A7" s="7">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="27" spans="1:8">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" s="5" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A8" s="9">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="27" spans="1:8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A10" s="9">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="27" spans="1:8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A11" s="9">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" ht="27" spans="1:8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" s="5" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A12" s="9">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A13" s="9">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="27" spans="1:8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A14" s="7">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="27" spans="1:8">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A15" s="7">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" ht="27" spans="1:8">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2264,14 +2312,394 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="37.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:8">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:8">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:8">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:8">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:8">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:8">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:8">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="27" spans="1:8">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="40.5" spans="1:8">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" ht="40.5" spans="1:8">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" ht="27" spans="1:8">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="40.5" spans="1:8">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="40.5" spans="1:8">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" ht="40.5" spans="1:8">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2286,7 +2714,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2302,7 +2730,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2318,7 +2746,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2334,12 +2762,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="28.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="28.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>

--- a/TestData/api_cases.xlsx
+++ b/TestData/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21165" windowHeight="9045" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="8807" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -260,79 +260,94 @@
     <t>会员id为字符串</t>
   </si>
   <si>
+    <t>{"member_id": "member_id","amount":600}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"数字格式化异常"}</t>
+  </si>
+  <si>
+    <t>会员id为小数</t>
+  </si>
+  <si>
+    <t>{"member_id": 15.0, "amount":600}</t>
+  </si>
+  <si>
+    <t>充值金额为0</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount": 0}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+  </si>
+  <si>
+    <t>充值金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount": -600}</t>
+  </si>
+  <si>
+    <t>充值金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#}</t>
+  </si>
+  <si>
+    <t>充值金额-3位小数</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount": 600.222}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"余额小数超过两位"}</t>
+  </si>
+  <si>
+    <t>充值金额-大于50万</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount": 500001}</t>
+  </si>
+  <si>
+    <t>充值金额-非数字</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount": "5万"}</t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>提现成功-整数</t>
+  </si>
+  <si>
+    <t>member/withdraw</t>
+  </si>
+  <si>
+    <t>提现成功-1位小数</t>
+  </si>
+  <si>
+    <t>提现成功-2位小数</t>
+  </si>
+  <si>
+    <t>提现成功-50万</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"会员id为空"}</t>
+  </si>
+  <si>
     <t>{"member_id": "#member_id#","amount":600}</t>
   </si>
   <si>
-    <t>{"code":2,"msg":"数字格式化异常"}</t>
-  </si>
-  <si>
-    <t>会员id为小数</t>
-  </si>
-  <si>
-    <t>{"member_id": 15.0, "amount":600}</t>
-  </si>
-  <si>
-    <t>充值金额为0</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount": 0}</t>
+    <t>{"code":2,"msg":"数值参数格式不正确"}</t>
   </si>
   <si>
     <t>{"code":2,"msg":"金额必须大于0并且小于或者等于500000"}</t>
   </si>
   <si>
-    <t>充值金额为负数</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount": -600}</t>
-  </si>
-  <si>
-    <t>充值金额为空</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"充值金额为空"}</t>
-  </si>
-  <si>
-    <t>充值金额-3位小数</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount": 600.222}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"金额小数超过两位"}</t>
-  </si>
-  <si>
-    <t>充值金额-大于50万</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount": 500001}</t>
-  </si>
-  <si>
-    <t>充值金额-非数字</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount": "5万"}</t>
-  </si>
-  <si>
-    <t>withdraw</t>
-  </si>
-  <si>
-    <t>提现成功-整数</t>
-  </si>
-  <si>
-    <t>member/withdraw</t>
-  </si>
-  <si>
-    <t>提现成功-1位小数</t>
-  </si>
-  <si>
-    <t>提现成功-2位小数</t>
-  </si>
-  <si>
-    <t>提现成功-50万</t>
+    <t>{"code":2,"msg":"余额必须大于0并且小于或者等于5000000"}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"余额为空"}</t>
   </si>
   <si>
     <t>url(必须以/开头)</t>
@@ -344,8 +359,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -380,23 +395,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,34 +418,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -447,62 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,12 +442,102 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -533,25 +548,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,157 +686,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,25 +768,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -792,11 +803,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,17 +842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -850,6 +856,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -858,10 +873,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,133 +885,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1384,18 +1399,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.89166666666667" style="3"/>
-    <col min="2" max="2" width="19.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="8.55833333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="3"/>
+    <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="8.55555555555556" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="46.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:7">
+    <row r="2" ht="28.8" spans="1:7">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1441,7 +1456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" ht="28.8" spans="1:7">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1464,7 +1479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1485,7 +1500,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="27" spans="1:7">
+    <row r="5" ht="28.8" spans="1:7">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1506,7 +1521,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="27" spans="1:7">
+    <row r="6" ht="28.8" spans="1:7">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1527,7 +1542,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="27" spans="1:7">
+    <row r="7" ht="28.8" spans="1:7">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1548,7 +1563,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="27" spans="1:7">
+    <row r="8" ht="28.8" spans="1:7">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1569,7 +1584,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" ht="27" spans="1:7">
+    <row r="9" ht="28.8" spans="1:7">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -1590,7 +1605,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" ht="27" spans="1:7">
+    <row r="10" ht="28.8" spans="1:7">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -1611,7 +1626,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1632,7 +1647,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="27" spans="1:7">
+    <row r="12" ht="28.8" spans="1:7">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -1653,7 +1668,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" ht="27" spans="1:7">
+    <row r="13" ht="28.8" spans="1:7">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -1674,7 +1689,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" ht="27" spans="1:7">
+    <row r="14" ht="28.8" spans="1:7">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1712,17 +1727,17 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="43.875" customWidth="1"/>
-    <col min="6" max="6" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="16.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="43.8796296296296" customWidth="1"/>
+    <col min="6" max="6" width="37.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
+    <row r="2" ht="15.6" spans="1:6">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1765,7 +1780,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
+    <row r="3" ht="15.6" spans="1:6">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1785,7 +1800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="15.6" spans="1:6">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1805,7 +1820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" ht="15.6" spans="1:6">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1825,7 +1840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" ht="15.6" spans="1:6">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1845,7 +1860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" ht="15.6" spans="1:6">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1865,7 +1880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" ht="15.6" spans="1:6">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1885,7 +1900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
+    <row r="9" ht="15.6" spans="1:6">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1917,23 +1932,23 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.5583333333333" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.5555555555556" style="9" customWidth="1"/>
     <col min="3" max="3" width="21.6666666666667" style="9" customWidth="1"/>
     <col min="4" max="4" width="8.33333333333333" style="9" customWidth="1"/>
     <col min="5" max="5" width="17" style="9" customWidth="1"/>
     <col min="6" max="6" width="33.75" style="9" customWidth="1"/>
-    <col min="7" max="7" width="36.8833333333333" style="9" customWidth="1"/>
-    <col min="8" max="8" width="25.375" style="9" customWidth="1"/>
-    <col min="9" max="16383" width="8.89166666666667" style="9"/>
+    <col min="7" max="7" width="36.8796296296296" style="9" customWidth="1"/>
+    <col min="8" max="8" width="25.3796296296296" style="9" customWidth="1"/>
+    <col min="9" max="16383" width="8.88888888888889" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="28.8" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
@@ -1959,7 +1974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="67.5" spans="1:8">
+    <row r="2" ht="72" spans="1:8">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1985,7 +2000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:8">
+    <row r="3" ht="72" spans="1:8">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2011,7 +2026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="67.5" spans="1:8">
+    <row r="4" ht="72" spans="1:8">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2037,7 +2052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="67.5" spans="1:8">
+    <row r="5" ht="72" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2087,7 +2102,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="27" spans="1:8">
+    <row r="7" ht="28.8" spans="1:8">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2111,7 +2126,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" ht="27" spans="1:8">
+    <row r="8" ht="28.8" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2135,7 +2150,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="28.8" spans="1:8">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2159,7 +2174,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" ht="27" spans="1:8">
+    <row r="10" ht="28.8" spans="1:8">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2183,7 +2198,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" ht="27" spans="1:8">
+    <row r="11" ht="28.8" spans="1:8">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2227,11 +2242,11 @@
         <v>89</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" ht="27" spans="1:8">
+    <row r="13" ht="28.8" spans="1:8">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2239,7 +2254,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>8</v>
@@ -2248,14 +2263,14 @@
         <v>62</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" ht="27" spans="1:8">
+    <row r="14" ht="28.8" spans="1:8">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2263,7 +2278,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>8</v>
@@ -2272,14 +2287,14 @@
         <v>62</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>85</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" ht="27" spans="1:8">
+    <row r="15" ht="28.8" spans="1:8">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2287,7 +2302,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -2296,7 +2311,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>80</v>
@@ -2314,19 +2329,19 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="12.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="16.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="37.625" customWidth="1"/>
+    <col min="8" max="8" width="37.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2355,21 +2370,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:8">
+    <row r="2" ht="43.2" spans="1:8">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>63</v>
@@ -2381,21 +2396,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:8">
+    <row r="3" ht="43.2" spans="1:8">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>67</v>
@@ -2407,21 +2422,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:8">
+    <row r="4" ht="43.2" spans="1:8">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>69</v>
@@ -2433,21 +2448,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:8">
+    <row r="5" ht="43.2" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>71</v>
@@ -2459,12 +2474,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:8">
+    <row r="6" ht="28.8" spans="1:8">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>72</v>
@@ -2473,22 +2488,22 @@
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="40.5" spans="1:8">
+    <row r="7" ht="43.2" spans="1:8">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>75</v>
@@ -2497,7 +2512,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>76</v>
@@ -2507,12 +2522,12 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" ht="40.5" spans="1:8">
+    <row r="8" ht="43.2" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>78</v>
@@ -2521,22 +2536,22 @@
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" ht="27" spans="1:8">
+    <row r="9" ht="28.8" spans="1:8">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>81</v>
@@ -2545,22 +2560,22 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" ht="40.5" spans="1:8">
+    <row r="10" ht="43.2" spans="1:8">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>83</v>
@@ -2569,22 +2584,22 @@
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" ht="40.5" spans="1:8">
+    <row r="11" ht="43.2" spans="1:8">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>86</v>
@@ -2593,22 +2608,22 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" ht="27" spans="1:8">
+    <row r="12" ht="28.8" spans="1:8">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>88</v>
@@ -2617,85 +2632,85 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>89</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" ht="40.5" spans="1:8">
+    <row r="13" ht="43.2" spans="1:8">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" ht="40.5" spans="1:8">
+    <row r="14" ht="43.2" spans="1:8">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" ht="40.5" spans="1:8">
+    <row r="15" ht="43.2" spans="1:8">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="H15" s="5"/>
     </row>
@@ -2714,7 +2729,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2730,7 +2745,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2746,7 +2761,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2762,12 +2777,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="28.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="28.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2778,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>

--- a/TestData/api_cases.xlsx
+++ b/TestData/api_cases.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8807" activeTab="3"/>
+    <workbookView windowWidth="13620" windowHeight="7752" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="登录" sheetId="3" r:id="rId2"/>
     <sheet name="充值" sheetId="2" r:id="rId3"/>
     <sheet name="提现" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="业务流" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="用例编写说明" sheetId="8" r:id="rId8"/>
+    <sheet name="加标" sheetId="5" r:id="rId5"/>
+    <sheet name="审核" sheetId="6" r:id="rId6"/>
+    <sheet name="投资" sheetId="7" r:id="rId7"/>
+    <sheet name="业务流" sheetId="9" r:id="rId8"/>
+    <sheet name="用例编写说明" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -348,6 +349,207 @@
   </si>
   <si>
     <t>{"code":1,"msg":"余额为空"}</t>
+  </si>
+  <si>
+    <t>check_sql2</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>加标成功</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>SELECT * FROM  futureloan.loan WHERE member_id=#member_id#;</t>
+  </si>
+  <si>
+    <t>加标失败—借款人id为空</t>
+  </si>
+  <si>
+    <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>加标失败—标题为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"标题为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款金额为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—年利率为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"利率为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款期限为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款期限为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款期限类型为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款日期类型为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—竞标天数为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"竞标期限为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款人id不是当前登录用户</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>加标失败—借款金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"借款金额范围错误"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款金额为小数</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","status":2}</t>
+  </si>
+  <si>
+    <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
+  </si>
+  <si>
+    <t>审核不通过</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not": False}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","status":5}</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>extract_data</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>管理员登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#admin#","pwd":"#admin_passwd#"}</t>
+  </si>
+  <si>
+    <t>{"admin_member_id":"$..id","admin_token":"$..token"}</t>
+  </si>
+  <si>
+    <t>管理员加标</t>
+  </si>
+  <si>
+    <t>{"admin_member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"loan_id":"???"}</t>
+  </si>
+  <si>
+    <t>管理员审核通过</t>
+  </si>
+  <si>
+    <t>普通用户登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#user#","pwd":"#passwd#"}</t>
+  </si>
+  <si>
+    <t>{"member_id":"$..id","token":"$..token"}</t>
+  </si>
+  <si>
+    <t>普通用户充值</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount":20000}</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"loan_id":#loan_id#,"amount":20000}</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789","type":0,"reg_name":"美丽可爱的小简"}</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>充值</t>
   </si>
   <si>
     <t>url(必须以/开头)</t>
@@ -358,10 +560,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -395,9 +597,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,6 +606,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,26 +649,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,43 +667,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,6 +688,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -533,7 +735,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,13 +750,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,13 +828,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,91 +912,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,31 +930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,22 +970,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,6 +1000,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -814,21 +1040,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,15 +1067,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -873,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,137 +1087,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,23 +1230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,7 +1237,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1411,304 +1633,304 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:7">
-      <c r="A2" s="18">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:7">
-      <c r="A3" s="18">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:7">
-      <c r="A4" s="18">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" ht="28.8" spans="1:7">
-      <c r="A5" s="18">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" ht="28.8" spans="1:7">
-      <c r="A6" s="18">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" ht="28.8" spans="1:7">
-      <c r="A7" s="18">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" ht="28.8" spans="1:7">
-      <c r="A8" s="18">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" ht="28.8" spans="1:7">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="26">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" ht="28.8" spans="1:7">
-      <c r="A10" s="18">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" ht="15.6" spans="1:7">
-      <c r="A11" s="18">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="28.8" spans="1:7">
-      <c r="A12" s="18">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" ht="28.8" spans="1:7">
-      <c r="A13" s="18">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" ht="28.8" spans="1:7">
-      <c r="A14" s="18">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1724,7 +1946,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1761,10 +1983,10 @@
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
-      <c r="A2" s="11">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1776,15 +1998,15 @@
       <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
-      <c r="A3" s="11">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1793,7 +2015,7 @@
       <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -1801,10 +2023,10 @@
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:6">
-      <c r="A4" s="11">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1813,7 +2035,7 @@
       <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -1821,10 +2043,10 @@
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:6">
-      <c r="A5" s="11">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1833,7 +2055,7 @@
       <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="13" t="s">
         <v>53</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -1841,10 +2063,10 @@
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:6">
-      <c r="A6" s="11">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1853,7 +2075,7 @@
       <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -1861,10 +2083,10 @@
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:6">
-      <c r="A7" s="11">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1873,7 +2095,7 @@
       <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="13" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -1881,10 +2103,10 @@
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:6">
-      <c r="A8" s="11">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1893,7 +2115,7 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -1901,10 +2123,10 @@
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:6">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1913,7 +2135,7 @@
       <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -1937,386 +2159,386 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.5555555555556" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.6666666666667" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17" style="9" customWidth="1"/>
-    <col min="6" max="6" width="33.75" style="9" customWidth="1"/>
-    <col min="7" max="7" width="36.8796296296296" style="9" customWidth="1"/>
-    <col min="8" max="8" width="25.3796296296296" style="9" customWidth="1"/>
-    <col min="9" max="16383" width="8.88888888888889" style="9"/>
+    <col min="1" max="1" width="7.66666666666667" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.5555555555556" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.6666666666667" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.33333333333333" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17" style="13" customWidth="1"/>
+    <col min="6" max="6" width="33.75" style="13" customWidth="1"/>
+    <col min="7" max="7" width="36.8796296296296" style="13" customWidth="1"/>
+    <col min="8" max="8" width="25.3796296296296" style="13" customWidth="1"/>
+    <col min="9" max="16383" width="8.88888888888889" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="72" spans="1:8">
-      <c r="A2" s="5">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" ht="72" spans="1:8">
-      <c r="A3" s="5">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:8">
-      <c r="A4" s="5">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" ht="28.8" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" ht="28.8" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" ht="28.8" spans="1:8">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" ht="28.8" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" ht="28.8" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" ht="28.8" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" ht="28.8" spans="1:8">
-      <c r="A14" s="5">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" ht="28.8" spans="1:8">
-      <c r="A15" s="5">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2329,8 +2551,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2345,374 +2567,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:8">
-      <c r="A2" s="5">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:8">
-      <c r="A3" s="5">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:8">
-      <c r="A4" s="5">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:8">
-      <c r="A6" s="5">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" ht="43.2" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" ht="43.2" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" ht="28.8" spans="1:8">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" ht="43.2" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" ht="43.2" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" ht="28.8" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" ht="43.2" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" ht="43.2" spans="1:8">
-      <c r="A14" s="5">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" ht="43.2" spans="1:8">
-      <c r="A15" s="5">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2723,14 +2945,350 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="39.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="23.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="9.88888888888889" customWidth="1"/>
+    <col min="9" max="9" width="14.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" spans="1:9">
+      <c r="A1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:9">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:9">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" ht="57.6" spans="1:9">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" ht="57.6" spans="1:9">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" ht="57.6" spans="1:9">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" ht="57.6" spans="1:9">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" ht="72" spans="1:9">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" ht="57.6" spans="1:9">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" ht="86.4" spans="1:9">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" ht="72" spans="1:9">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" ht="72" spans="1:9">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2739,14 +3297,93 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2755,20 +3392,275 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="40.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.6" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="2:7">
+      <c r="B3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="45.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G1"/>
@@ -2793,7 +3685,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>

--- a/TestData/api_cases.xlsx
+++ b/TestData/api_cases.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17265" windowHeight="9045" activeTab="1"/>
+    <workbookView windowWidth="16835" windowHeight="7212" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="登录" sheetId="3" r:id="rId2"/>
     <sheet name="充值" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="业务流" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="加标" sheetId="4" r:id="rId4"/>
+    <sheet name="审核" sheetId="5" r:id="rId5"/>
+    <sheet name="投资" sheetId="7" r:id="rId6"/>
+    <sheet name="业务流" sheetId="6" r:id="rId7"/>
     <sheet name="用例编写说明" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="178">
   <si>
     <t>id</t>
   </si>
@@ -315,6 +315,243 @@
   </si>
   <si>
     <t>{"member_id": #member_id#,"amount": "5万"}</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>extract_data</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>前置操作 - 管理员登陆</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#admin#","pwd":"#admin_passwd#"}</t>
+  </si>
+  <si>
+    <t>{"admin_member_id":"$..id","token":"$..token"}</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>加标成功</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>SELECT * FROM  futureloan.loan WHERE member_id=#admin_member_id#;</t>
+  </si>
+  <si>
+    <t>加标失败—借款人id为空</t>
+  </si>
+  <si>
+    <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>加标失败—标题为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"标题为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款金额为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—年利率为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"利率为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款期限为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款期限为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款期限类型为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款日期类型为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—竞标天数为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"竞标期限为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款人id不是当前登录用户</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>加标失败—借款金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"借款金额范围错误"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款金额为小数</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>前置操作 -普通用户登陆</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#user#","pwd":"#passwd#"}</t>
+  </si>
+  <si>
+    <t>{"member_id":"$..id","token":"$..token"}</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","status":2}</t>
+  </si>
+  <si>
+    <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
+  </si>
+  <si>
+    <t>审核不通过</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not": False}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","status":5}</t>
+  </si>
+  <si>
+    <t>管理员登录</t>
+  </si>
+  <si>
+    <t>管理员加标</t>
+  </si>
+  <si>
+    <t>{"loan_id":"$..id"}</t>
+  </si>
+  <si>
+    <t>管理员审核通过</t>
+  </si>
+  <si>
+    <t>普通用户登录</t>
+  </si>
+  <si>
+    <t>普通用户充值</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount":20000}</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"loan_id":#loan_id#,"amount":20000}</t>
+  </si>
+  <si>
+    <t>投资人正常投资</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>投资人id为空</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"会员id为空"}</t>
+  </si>
+  <si>
+    <t>标id为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"项目id为空"}</t>
+  </si>
+  <si>
+    <t>投资金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#, "loan_id":#loan_id#}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"余额为空"}</t>
+  </si>
+  <si>
+    <t>投资金额超过标的金额</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789","type":0,"reg_name":"美丽可爱的小简"}</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>充值</t>
   </si>
   <si>
     <t>url(必须以/开头)</t>
@@ -325,9 +562,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -346,15 +583,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -370,21 +607,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,6 +670,22 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,16 +705,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -436,14 +720,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -452,32 +728,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,21 +738,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,7 +752,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,19 +866,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,19 +896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,25 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,73 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,19 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,6 +973,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -746,6 +1016,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,48 +1061,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -817,21 +1069,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,10 +1077,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,19 +1089,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,116 +1110,116 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,11 +1232,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,8 +1239,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1334,18 +1593,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.89166666666667" style="3"/>
-    <col min="2" max="2" width="19.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="8.55833333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="66.225" customWidth="1"/>
-    <col min="6" max="6" width="45.1083333333333" customWidth="1"/>
-    <col min="7" max="7" width="59.225" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="3"/>
+    <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="8.55555555555556" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="66.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="45.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="59.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,10 +1628,10 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1384,7 +1643,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1392,10 +1651,10 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1407,18 +1666,18 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="9">
+    <row r="4" ht="15.6" spans="1:6">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1427,18 +1686,18 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="9">
+    <row r="5" ht="15.6" spans="1:6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1447,18 +1706,18 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="9">
+    <row r="6" ht="15.6" spans="1:6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1467,18 +1726,18 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="9">
+    <row r="7" ht="15.6" spans="1:6">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1487,18 +1746,18 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="9">
+    <row r="8" ht="15.6" spans="1:6">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1507,18 +1766,18 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" ht="15.6" spans="1:6">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1527,18 +1786,18 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="9">
+    <row r="10" ht="15.6" spans="1:6">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1547,18 +1806,18 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="9">
+    <row r="11" ht="15.6" spans="1:6">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1567,18 +1826,18 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="9">
+    <row r="12" ht="15.6" spans="1:6">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1587,18 +1846,18 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="9">
+    <row r="13" ht="15.6" spans="1:6">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1607,18 +1866,18 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="9">
+    <row r="14" ht="15.6" spans="1:7">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1627,10 +1886,10 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
@@ -1648,20 +1907,20 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.1296296296296" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="32.125" customWidth="1"/>
+    <col min="6" max="6" width="32.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,11 +1943,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="9">
+    <row r="2" ht="15.6" spans="1:6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1700,15 +1959,15 @@
       <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="9">
+    <row r="3" ht="15.6" spans="1:6">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1717,18 +1976,18 @@
       <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="9">
+    <row r="4" ht="15.6" spans="1:6">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1737,18 +1996,18 @@
       <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="9">
+    <row r="5" ht="15.6" spans="1:6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1757,18 +2016,18 @@
       <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="9">
+    <row r="6" ht="15.6" spans="1:6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1777,18 +2036,18 @@
       <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="9">
+    <row r="7" ht="15.6" spans="1:6">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1797,18 +2056,18 @@
       <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="9">
+    <row r="8" ht="15.6" spans="1:6">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1817,18 +2076,18 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" ht="15.6" spans="1:6">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1837,10 +2096,10 @@
       <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1856,378 +2115,378 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.5583333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.6666666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="48.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.5583333333333" style="4" customWidth="1"/>
-    <col min="8" max="16383" width="8.89166666666667" style="4"/>
+    <col min="1" max="1" width="7.66666666666667" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.5555555555556" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.6666666666667" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.33333333333333" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17" style="13" customWidth="1"/>
+    <col min="6" max="6" width="48.6666666666667" style="13" customWidth="1"/>
+    <col min="7" max="7" width="55.5555555555556" style="13" customWidth="1"/>
+    <col min="8" max="16383" width="8.88888888888889" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:8">
+      <c r="A1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A2" s="4">
+    <row r="2" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A3" s="4">
+    <row r="3" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A4" s="4">
+    <row r="4" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A5" s="4">
+    <row r="5" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A6" s="4">
+    <row r="6" s="13" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A7" s="4">
+    <row r="7" s="13" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A8" s="5">
+    <row r="8" s="18" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" s="13" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A10" s="5">
+    <row r="10" s="13" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A11" s="5">
+    <row r="11" s="13" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A12" s="5">
+    <row r="12" s="18" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A13" s="5">
+    <row r="13" s="13" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A14" s="4">
+    <row r="14" s="13" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A15" s="4">
+    <row r="15" s="13" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2240,14 +2499,409 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="86.4" spans="1:10">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" ht="259.2" spans="1:10">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" ht="216" spans="1:10">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" ht="201.6" spans="1:10">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" ht="230.4" spans="1:10">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" ht="230.4" spans="1:10">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" ht="230.4" spans="1:10">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" ht="216" spans="1:10">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" ht="230.4" spans="1:10">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" ht="273.6" spans="1:10">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" ht="259.2" spans="1:10">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" ht="259.2" spans="1:10">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" ht="72" spans="1:10">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2256,14 +2910,93 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2272,14 +3005,240 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" ht="15.6" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" ht="259.2" spans="2:7">
+      <c r="B3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" ht="129.6" spans="2:8">
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="72" spans="2:8">
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" ht="72" spans="3:8">
+      <c r="C10" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" ht="100.8" spans="3:8">
+      <c r="C11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2288,14 +3247,89 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="15.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" ht="158.4" spans="1:5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2310,12 +3344,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="28.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="28.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
